--- a/code/SSIM.xlsx
+++ b/code/SSIM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\github\Digital_Watermarking-LSB-pair\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3D6435FE-67DA-42A5-8800-3B6E8DD54765}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DF6D51AD-9E98-465C-8D1C-E71D8ABF7AA2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10590" xr2:uid="{B1ED9CF8-8348-42FD-AEA4-2B45F6167BC6}"/>
   </bookViews>
@@ -505,133 +505,106 @@
         <v>0.99662420299230281</v>
       </c>
       <c r="D2">
-        <v>0.99635606101238949</v>
+        <v>0.99660008614738449</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>10</v>
-      </c>
       <c r="B3">
-        <v>0.99727632871553695</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.99727116532673632</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.99688699363344735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>100</v>
-      </c>
       <c r="B4">
-        <v>0.99755083094326402</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.99754972914898443</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.99727497575093438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>11</v>
-      </c>
       <c r="B5">
-        <v>0.98892497132886759</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.98894570400885007</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.98845894351754748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>12</v>
-      </c>
       <c r="B6">
-        <v>0.99699833834892071</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.99699334760730995</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.99664259109365982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>13</v>
-      </c>
       <c r="B7">
-        <v>0.99706674644073423</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.99706913600998304</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.99671366598426681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>14</v>
-      </c>
       <c r="B8">
-        <v>0.99173528625789431</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.99173778572694959</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.99127300886569258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>15</v>
-      </c>
       <c r="B9">
-        <v>0.99709577359887969</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.99709026688683156</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.99674904116695839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>16</v>
-      </c>
       <c r="B10">
-        <v>0.99652523541423554</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.99652144568920198</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.99596875658452411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>17</v>
-      </c>
       <c r="B11">
-        <v>0.99632575384507172</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.9963244441121657</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.99605073667054456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">

--- a/code/SSIM.xlsx
+++ b/code/SSIM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\github\Digital_Watermarking-LSB-pair\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DF6D51AD-9E98-465C-8D1C-E71D8ABF7AA2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D7528EFF-E697-44CF-A7CC-70E0459096DC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10590" xr2:uid="{B1ED9CF8-8348-42FD-AEA4-2B45F6167BC6}"/>
   </bookViews>
@@ -509,1092 +509,1389 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>10</v>
+      </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.99727632871553695</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.99727116532673632</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.99724179036629224</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>100</v>
+      </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.99755083094326402</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.99754972914898443</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.99749448400148266</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>11</v>
+      </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.98892497132886759</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.98894570400885007</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.98907595672063475</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>12</v>
+      </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.99699833834892071</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.99699334760730995</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.99694860768201987</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>13</v>
+      </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.99706674644073423</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.99706913600998304</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.99708122451202796</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>14</v>
+      </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.99173528625789431</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.99173778572694959</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.9917844709087299</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>15</v>
+      </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.99709577359887969</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.99709026688683156</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.99705971748087507</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>16</v>
+      </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.99652523541423554</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.99652144568920198</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.99650934880702813</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>17</v>
+      </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.99632575384507172</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.9963244441121657</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.99632005078156916</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>18</v>
+      </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.99565305187511333</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.99565130914993849</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.99564596816236883</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>19</v>
+      </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.99656567040549959</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.99655869500640959</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.99653638626239194</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.98900211051200027</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.98900221214888129</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.98904055473815489</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>20</v>
+      </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.99196734335335757</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.99198226779344567</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.9920926369014702</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>21</v>
+      </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.99637819532992433</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.99637405920112265</v>
       </c>
       <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99635222834020021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>22</v>
+      </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.99689746703765658</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.99689022237100999</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.9968427750057941</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>23</v>
+      </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.99701664367995202</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.99701212057004251</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99694548755002332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>24</v>
+      </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.99750632570331876</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.99750134431397863</v>
       </c>
       <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99746692010921367</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>25</v>
+      </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.99690060593356855</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.99689376269239349</v>
       </c>
       <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99683727889778218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>26</v>
+      </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.99735271655738023</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.99734955119735458</v>
       </c>
       <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99718838191963655</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>27</v>
+      </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.9973993136115118</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.99739813128036259</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99710000727769776</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>28</v>
+      </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.99690207773966344</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.9968994584938502</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.9968678538873299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>29</v>
+      </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.99305092185444721</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.99305221926551857</v>
       </c>
       <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.9931285194200713</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3</v>
+      </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.99682901890904041</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.99682526790369097</v>
       </c>
       <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99674928603246093</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>30</v>
+      </c>
       <c r="B26">
-        <v>0</v>
+        <v>0.99762369543752749</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>0.99762163302614559</v>
       </c>
       <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99756683519579281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>31</v>
+      </c>
       <c r="B27">
-        <v>0</v>
+        <v>0.99739062438519477</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>0.99738838565966914</v>
       </c>
       <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.9973412562678603</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>32</v>
+      </c>
       <c r="B28">
-        <v>0</v>
+        <v>0.99708853678250497</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>0.99708689811457374</v>
       </c>
       <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99696151083220874</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>33</v>
+      </c>
       <c r="B29">
-        <v>0</v>
+        <v>0.99473918031868735</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>0.99473937962413639</v>
       </c>
       <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99479396907265083</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>34</v>
+      </c>
       <c r="B30">
-        <v>0</v>
+        <v>0.99604939773997181</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>0.99605150763832295</v>
       </c>
       <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99595618781029216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>35</v>
+      </c>
       <c r="B31">
-        <v>0</v>
+        <v>0.99271580952826532</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>0.99272899589178731</v>
       </c>
       <c r="D31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99276130237833793</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>36</v>
+      </c>
       <c r="B32">
-        <v>0</v>
+        <v>0.9963287026597718</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>0.99632200706751661</v>
       </c>
       <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99629868901815988</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>37</v>
+      </c>
       <c r="B33">
-        <v>0</v>
+        <v>0.98803702761787537</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>0.98807087089560752</v>
       </c>
       <c r="D33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.9881949577061151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>38</v>
+      </c>
       <c r="B34">
-        <v>0</v>
+        <v>0.98433111977919663</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>0.98434603120116027</v>
       </c>
       <c r="D34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.98449920044368</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>39</v>
+      </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.98814729419801439</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.98818148743443868</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.98832333627385383</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>4</v>
+      </c>
       <c r="B36">
-        <v>0</v>
+        <v>0.97573825826832428</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>0.97577570978433614</v>
       </c>
       <c r="D36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.97595488559042221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>40</v>
+      </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.9873730924088544</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.98740143092379395</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.98764455490690661</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>41</v>
+      </c>
       <c r="B38">
-        <v>0</v>
+        <v>0.98570368386506546</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>0.98572424372587752</v>
       </c>
       <c r="D38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.98585550057222771</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>42</v>
+      </c>
       <c r="B39">
-        <v>0</v>
+        <v>0.98468042242906029</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>0.98469215087460682</v>
       </c>
       <c r="D39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.98483710617413134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>43</v>
+      </c>
       <c r="B40">
-        <v>0</v>
+        <v>0.98669367340396008</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>0.98673044016607503</v>
       </c>
       <c r="D40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.98685487368027391</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>44</v>
+      </c>
       <c r="B41">
-        <v>0</v>
+        <v>0.98773123918645744</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>0.98775290032915919</v>
       </c>
       <c r="D41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.98795693389296657</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>45</v>
+      </c>
       <c r="B42">
-        <v>0</v>
+        <v>0.97864289024988971</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>0.97867810124056587</v>
       </c>
       <c r="D42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.978909709033978</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>46</v>
+      </c>
       <c r="B43">
-        <v>0</v>
+        <v>0.97937621659941576</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>0.97939529218665911</v>
       </c>
       <c r="D43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.97955216250293675</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>47</v>
+      </c>
       <c r="B44">
-        <v>0</v>
+        <v>0.98484928452811049</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>0.98486282344202702</v>
       </c>
       <c r="D44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.98498676763561432</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>48</v>
+      </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.99392732078478996</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>0.9939499854895425</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99409864615911969</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>49</v>
+      </c>
       <c r="B46">
-        <v>0</v>
+        <v>0.99740582872026784</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>0.99740314749264725</v>
       </c>
       <c r="D46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99738383042024503</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>5</v>
+      </c>
       <c r="B47">
-        <v>0</v>
+        <v>0.99752045998710459</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>0.9975124814243056</v>
       </c>
       <c r="D47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99745856544577671</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>50</v>
+      </c>
       <c r="B48">
-        <v>0</v>
+        <v>0.99800528023810575</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>0.99800332354604104</v>
       </c>
       <c r="D48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99787933859155609</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>51</v>
+      </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.99735947038774186</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.99735427045892644</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99731971845853562</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>52</v>
+      </c>
       <c r="B50">
-        <v>0</v>
+        <v>0.99754179238405216</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>0.99753742741481699</v>
       </c>
       <c r="D50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99750944454949542</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>53</v>
+      </c>
       <c r="B51">
-        <v>0</v>
+        <v>0.99811616087152055</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>0.99811383782222474</v>
       </c>
       <c r="D51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99806587475801323</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>54</v>
+      </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.99808600693134264</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.99808373439908415</v>
       </c>
       <c r="D52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99806682005394198</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>55</v>
+      </c>
       <c r="B53">
-        <v>0</v>
+        <v>0.9978238562668873</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>0.99781937795444509</v>
       </c>
       <c r="D53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99780246114035798</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>56</v>
+      </c>
       <c r="B54">
-        <v>0</v>
+        <v>0.99736113621688693</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>0.99735432912143729</v>
       </c>
       <c r="D54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99728673374710086</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>57</v>
+      </c>
       <c r="B55">
-        <v>0</v>
+        <v>0.99741547788619889</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>0.99741120458853305</v>
       </c>
       <c r="D55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99735495069294333</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>58</v>
+      </c>
       <c r="B56">
-        <v>0</v>
+        <v>0.99722978725216183</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>0.99722027445636219</v>
       </c>
       <c r="D56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99714931027630527</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>59</v>
+      </c>
       <c r="B57">
-        <v>0</v>
+        <v>0.99706226306196599</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>0.99705716209843609</v>
       </c>
       <c r="D57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99693967674695716</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>6</v>
+      </c>
       <c r="B58">
-        <v>0</v>
+        <v>0.99639746523752404</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>0.99639475926910981</v>
       </c>
       <c r="D58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99637311590575184</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>60</v>
+      </c>
       <c r="B59">
-        <v>0</v>
+        <v>0.99577113512443316</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>0.99577060219927493</v>
       </c>
       <c r="D59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99558196091300921</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>61</v>
+      </c>
       <c r="B60">
-        <v>0</v>
+        <v>0.99717001600374611</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>0.99716141369414546</v>
       </c>
       <c r="D60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99710169923914593</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>62</v>
+      </c>
       <c r="B61">
-        <v>0</v>
+        <v>0.99655599583079824</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>0.99654937678318756</v>
       </c>
       <c r="D61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99650177816947905</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>63</v>
+      </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.99625007330703907</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.99625614400300255</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99628061546397406</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>64</v>
+      </c>
       <c r="B63">
-        <v>0</v>
+        <v>0.99575659842276487</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>0.99575758492826438</v>
       </c>
       <c r="D63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99579019157650628</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>65</v>
+      </c>
       <c r="B64">
-        <v>0</v>
+        <v>0.99189376852305955</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>0.9918959085800636</v>
       </c>
       <c r="D64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99195181798170384</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>66</v>
+      </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.9893619960252702</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.989367611363414</v>
       </c>
       <c r="D65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.98944560160366279</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>67</v>
+      </c>
       <c r="B66">
-        <v>0</v>
+        <v>0.99643986168124277</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>0.99643656256367164</v>
       </c>
       <c r="D66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99639788343425595</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>68</v>
+      </c>
       <c r="B67">
-        <v>0</v>
+        <v>0.99672394716264656</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>0.99672398512551907</v>
       </c>
       <c r="D67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99661709383946406</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>69</v>
+      </c>
       <c r="B68">
-        <v>0</v>
+        <v>0.99815867650644163</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>0.99815799015070517</v>
       </c>
       <c r="D68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99812361754210388</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>7</v>
+      </c>
       <c r="B69">
-        <v>0</v>
+        <v>0.99687736911820612</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>0.99687511747084423</v>
       </c>
       <c r="D69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99670732270228768</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>70</v>
+      </c>
       <c r="B70">
-        <v>0</v>
+        <v>0.9982805143049398</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>0.9982800894895244</v>
       </c>
       <c r="D70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99826359630443917</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>71</v>
+      </c>
       <c r="B71">
-        <v>0</v>
+        <v>0.99862657191376913</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>0.99862616488854705</v>
       </c>
       <c r="D71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99862326866234918</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>72</v>
+      </c>
       <c r="B72">
-        <v>0</v>
+        <v>0.99821089082025594</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>0.99821011113978197</v>
       </c>
       <c r="D72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99798558594433151</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>73</v>
+      </c>
       <c r="B73">
-        <v>0</v>
+        <v>0.99891015629564228</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>0.99890952632057617</v>
       </c>
       <c r="D73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.9987315970608357</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>74</v>
+      </c>
       <c r="B74">
-        <v>0</v>
+        <v>0.99805752115958168</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>0.99805659750538811</v>
       </c>
       <c r="D74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99804742350964759</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>75</v>
+      </c>
       <c r="B75">
-        <v>0</v>
+        <v>0.99808578522778912</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>0.99808375024414719</v>
       </c>
       <c r="D75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99792030811140886</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>76</v>
+      </c>
       <c r="B76">
-        <v>0</v>
+        <v>0.99771318977009715</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>0.99771013564362598</v>
       </c>
       <c r="D76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.9974984505982083</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>77</v>
+      </c>
       <c r="B77">
-        <v>0</v>
+        <v>0.99802300899032637</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>0.99802075844737559</v>
       </c>
       <c r="D77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99800774962561389</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>78</v>
+      </c>
       <c r="B78">
-        <v>0</v>
+        <v>0.99779308196513561</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>0.99778992779640396</v>
       </c>
       <c r="D78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99753905044779145</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>79</v>
+      </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.99795872131029784</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.99795636894313067</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99794648298558097</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>8</v>
+      </c>
       <c r="B80">
-        <v>0</v>
+        <v>0.99678579391217725</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>0.99678053625130947</v>
       </c>
       <c r="D80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99666975067301344</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
       <c r="B81">
-        <v>0</v>
+        <v>0.99785697361324788</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>0.9978565324941342</v>
       </c>
       <c r="D81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99774546612631132</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.99659566931234556</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.99658999176629515</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99656641354013309</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
       <c r="B83">
-        <v>0</v>
+        <v>0.99635546337857561</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>0.99635291656947111</v>
       </c>
       <c r="D83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99632462031016544</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.99610496038026319</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.99610523935952489</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99601059299179007</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
       <c r="B85">
-        <v>0</v>
+        <v>0.98582179609428999</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>0.98583127109197521</v>
       </c>
       <c r="D85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.98589949579609526</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
       <c r="B86">
-        <v>0</v>
+        <v>0.99605639680314007</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>0.99605558098882996</v>
       </c>
       <c r="D86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.9959466886102093</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
       <c r="B87">
-        <v>0</v>
+        <v>0.99245380146005446</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>0.9924540558492132</v>
       </c>
       <c r="D87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99249124702938551</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
       <c r="B88">
-        <v>0</v>
+        <v>0.99723669292845318</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>0.99723381235003372</v>
       </c>
       <c r="D88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99708100207505379</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
       <c r="B89">
-        <v>0</v>
+        <v>0.98979273740260421</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>0.98979507108107168</v>
       </c>
       <c r="D89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.98982871054864752</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
       <c r="B90">
-        <v>0</v>
+        <v>0.99314594399177702</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>0.99315737231582124</v>
       </c>
       <c r="D90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99323151796753351</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>9</v>
+      </c>
       <c r="B91">
-        <v>0</v>
+        <v>0.99741568939779413</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>0.9974094022250507</v>
       </c>
       <c r="D91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99737115186429315</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>90</v>
+      </c>
       <c r="B92">
-        <v>0</v>
+        <v>0.99666352335576736</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>0.99665938985452451</v>
       </c>
       <c r="D92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99664557212901783</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>91</v>
+      </c>
       <c r="B93">
-        <v>0</v>
+        <v>0.9968262581135382</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>0.99682334540120976</v>
       </c>
       <c r="D93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99680588768442224</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>92</v>
+      </c>
       <c r="B94">
-        <v>0</v>
+        <v>0.99579856274916378</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>0.99579796443728408</v>
       </c>
       <c r="D94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99579264104621679</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>93</v>
+      </c>
       <c r="B95">
-        <v>0</v>
+        <v>0.99649146994939031</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>0.99648967332319804</v>
       </c>
       <c r="D95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99647962868254469</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>94</v>
+      </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.99636373278116463</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.99636290194627819</v>
       </c>
       <c r="D96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99634988747224029</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>95</v>
+      </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.99649053503172558</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.99649007804228296</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.9964874377011701</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>96</v>
+      </c>
       <c r="B98">
-        <v>0</v>
+        <v>0.99631286036687083</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>0.99631153614576651</v>
       </c>
       <c r="D98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99630313082584476</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>97</v>
+      </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.99468388481308501</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.99468997277020166</v>
       </c>
       <c r="D99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99470992920266998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>98</v>
+      </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.99681179148380394</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.9968084362143852</v>
       </c>
       <c r="D100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.99678741990203534</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>99</v>
+      </c>
       <c r="B101">
-        <v>0</v>
+        <v>0.99697930762940934</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>0.99697789733071573</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>0.99697123312806302</v>
       </c>
     </row>
   </sheetData>

--- a/code/SSIM.xlsx
+++ b/code/SSIM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\github\Digital_Watermarking-LSB-pair\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D7528EFF-E697-44CF-A7CC-70E0459096DC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{62BD491B-923E-4F62-BD84-7C35945D78E9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10590" xr2:uid="{B1ED9CF8-8348-42FD-AEA4-2B45F6167BC6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10590" xr2:uid="{E242CDEE-F459-45A4-A068-01DB7B248051}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,19 +28,15 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Image Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LSB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LSB_pair</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LSB-pair-ultar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -96,74 +92,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -180,10 +108,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="004040"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="D1E2D6"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -471,7 +399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D058503-1B8B-4F29-AF1C-BC4196597E4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1C3735-279B-4279-9139-BFBFA7502CCA}">
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -505,7 +433,7 @@
         <v>0.99662420299230281</v>
       </c>
       <c r="D2">
-        <v>0.99660008614738449</v>
+        <v>0.9960766750132195</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -519,7 +447,7 @@
         <v>0.99727116532673632</v>
       </c>
       <c r="D3">
-        <v>0.99724179036629224</v>
+        <v>0.99624301881785549</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -533,7 +461,7 @@
         <v>0.99754972914898443</v>
       </c>
       <c r="D4">
-        <v>0.99749448400148266</v>
+        <v>0.99451176331311142</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -547,7 +475,7 @@
         <v>0.98894570400885007</v>
       </c>
       <c r="D5">
-        <v>0.98907595672063475</v>
+        <v>0.98798519126500761</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -561,7 +489,7 @@
         <v>0.99699334760730995</v>
       </c>
       <c r="D6">
-        <v>0.99694860768201987</v>
+        <v>0.9960269024697479</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -575,7 +503,7 @@
         <v>0.99706913600998304</v>
       </c>
       <c r="D7">
-        <v>0.99708122451202796</v>
+        <v>0.99569491115281805</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -589,7 +517,7 @@
         <v>0.99173778572694959</v>
       </c>
       <c r="D8">
-        <v>0.9917844709087299</v>
+        <v>0.99087439127982047</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -603,7 +531,7 @@
         <v>0.99709026688683156</v>
       </c>
       <c r="D9">
-        <v>0.99705971748087507</v>
+        <v>0.99522498995502473</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -617,7 +545,7 @@
         <v>0.99652144568920198</v>
       </c>
       <c r="D10">
-        <v>0.99650934880702813</v>
+        <v>0.99502976590744163</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -631,1267 +559,997 @@
         <v>0.9963244441121657</v>
       </c>
       <c r="D11">
-        <v>0.99632005078156916</v>
+        <v>0.99531170908011679</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>18</v>
-      </c>
       <c r="B12">
-        <v>0.99565305187511333</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.99565130914993849</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.99564596816236883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>19</v>
-      </c>
       <c r="B13">
-        <v>0.99656567040549959</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0.99655869500640959</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.99653638626239194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2</v>
-      </c>
       <c r="B14">
-        <v>0.98900211051200027</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0.98900221214888129</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0.98904055473815489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>20</v>
-      </c>
       <c r="B15">
-        <v>0.99196734335335757</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0.99198226779344567</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0.9920926369014702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>21</v>
-      </c>
       <c r="B16">
-        <v>0.99637819532992433</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0.99637405920112265</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.99635222834020021</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>22</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17">
-        <v>0.99689746703765658</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.99689022237100999</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.9968427750057941</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>23</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18">
-        <v>0.99701664367995202</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0.99701212057004251</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.99694548755002332</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19">
-        <v>0.99750632570331876</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0.99750134431397863</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.99746692010921367</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>25</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20">
-        <v>0.99690060593356855</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0.99689376269239349</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.99683727889778218</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>26</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21">
-        <v>0.99735271655738023</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0.99734955119735458</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.99718838191963655</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>27</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22">
-        <v>0.9973993136115118</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0.99739813128036259</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0.99710000727769776</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23">
-        <v>0.99690207773966344</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0.9968994584938502</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.9968678538873299</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24">
-        <v>0.99305092185444721</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0.99305221926551857</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0.9931285194200713</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25">
-        <v>0.99682901890904041</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>0.99682526790369097</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0.99674928603246093</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26">
-        <v>0.99762369543752749</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>0.99762163302614559</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>0.99756683519579281</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>31</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27">
-        <v>0.99739062438519477</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>0.99738838565966914</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>0.9973412562678603</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>32</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28">
-        <v>0.99708853678250497</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>0.99708689811457374</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>0.99696151083220874</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>33</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29">
-        <v>0.99473918031868735</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>0.99473937962413639</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>0.99479396907265083</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>34</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30">
-        <v>0.99604939773997181</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>0.99605150763832295</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>0.99595618781029216</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>35</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31">
-        <v>0.99271580952826532</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>0.99272899589178731</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>0.99276130237833793</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>36</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32">
-        <v>0.9963287026597718</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>0.99632200706751661</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>0.99629868901815988</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>37</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33">
-        <v>0.98803702761787537</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>0.98807087089560752</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>0.9881949577061151</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>38</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34">
-        <v>0.98433111977919663</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>0.98434603120116027</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>0.98449920044368</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35">
-        <v>0.98814729419801439</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>0.98818148743443868</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>0.98832333627385383</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36">
-        <v>0.97573825826832428</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>0.97577570978433614</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>0.97595488559042221</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>40</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37">
-        <v>0.9873730924088544</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>0.98740143092379395</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>0.98764455490690661</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>41</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38">
-        <v>0.98570368386506546</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>0.98572424372587752</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>0.98585550057222771</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>42</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39">
-        <v>0.98468042242906029</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>0.98469215087460682</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>0.98483710617413134</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>43</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40">
-        <v>0.98669367340396008</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>0.98673044016607503</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>0.98685487368027391</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>44</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41">
-        <v>0.98773123918645744</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>0.98775290032915919</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>0.98795693389296657</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42">
-        <v>0.97864289024988971</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>0.97867810124056587</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>0.978909709033978</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>46</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43">
-        <v>0.97937621659941576</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>0.97939529218665911</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>0.97955216250293675</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>47</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44">
-        <v>0.98484928452811049</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>0.98486282344202702</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>0.98498676763561432</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>48</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45">
-        <v>0.99392732078478996</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>0.9939499854895425</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>0.99409864615911969</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>49</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46">
-        <v>0.99740582872026784</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>0.99740314749264725</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>0.99738383042024503</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47">
-        <v>0.99752045998710459</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>0.9975124814243056</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>0.99745856544577671</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>50</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48">
-        <v>0.99800528023810575</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>0.99800332354604104</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>0.99787933859155609</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>51</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49">
-        <v>0.99735947038774186</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>0.99735427045892644</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>0.99731971845853562</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>52</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50">
-        <v>0.99754179238405216</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>0.99753742741481699</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>0.99750944454949542</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>53</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51">
-        <v>0.99811616087152055</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>0.99811383782222474</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>0.99806587475801323</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>54</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52">
-        <v>0.99808600693134264</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>0.99808373439908415</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>0.99806682005394198</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>55</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53">
-        <v>0.9978238562668873</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>0.99781937795444509</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>0.99780246114035798</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>56</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54">
-        <v>0.99736113621688693</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>0.99735432912143729</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>0.99728673374710086</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>57</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55">
-        <v>0.99741547788619889</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>0.99741120458853305</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>0.99735495069294333</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>58</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56">
-        <v>0.99722978725216183</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>0.99722027445636219</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>0.99714931027630527</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>59</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57">
-        <v>0.99706226306196599</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>0.99705716209843609</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>0.99693967674695716</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58">
-        <v>0.99639746523752404</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>0.99639475926910981</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>0.99637311590575184</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>60</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B59">
-        <v>0.99577113512443316</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>0.99577060219927493</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>0.99558196091300921</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>61</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60">
-        <v>0.99717001600374611</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>0.99716141369414546</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>0.99710169923914593</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>62</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B61">
-        <v>0.99655599583079824</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>0.99654937678318756</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>0.99650177816947905</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>63</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B62">
-        <v>0.99625007330703907</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>0.99625614400300255</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>0.99628061546397406</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>64</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63">
-        <v>0.99575659842276487</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>0.99575758492826438</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>0.99579019157650628</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>65</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B64">
-        <v>0.99189376852305955</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>0.9918959085800636</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>0.99195181798170384</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>66</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65">
-        <v>0.9893619960252702</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>0.989367611363414</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>0.98944560160366279</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>67</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66">
-        <v>0.99643986168124277</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>0.99643656256367164</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>0.99639788343425595</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>68</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67">
-        <v>0.99672394716264656</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>0.99672398512551907</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>0.99661709383946406</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68">
-        <v>0.99815867650644163</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>0.99815799015070517</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>0.99812361754210388</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69">
-        <v>0.99687736911820612</v>
+        <v>0</v>
       </c>
       <c r="C69">
-        <v>0.99687511747084423</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>0.99670732270228768</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>70</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70">
-        <v>0.9982805143049398</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>0.9982800894895244</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>0.99826359630443917</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>71</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71">
-        <v>0.99862657191376913</v>
+        <v>0</v>
       </c>
       <c r="C71">
-        <v>0.99862616488854705</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>0.99862326866234918</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72">
-        <v>0.99821089082025594</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>0.99821011113978197</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>0.99798558594433151</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>73</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B73">
-        <v>0.99891015629564228</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>0.99890952632057617</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>0.9987315970608357</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>74</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74">
-        <v>0.99805752115958168</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>0.99805659750538811</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>0.99804742350964759</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75">
-        <v>0.99808578522778912</v>
+        <v>0</v>
       </c>
       <c r="C75">
-        <v>0.99808375024414719</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>0.99792030811140886</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>76</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76">
-        <v>0.99771318977009715</v>
+        <v>0</v>
       </c>
       <c r="C76">
-        <v>0.99771013564362598</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>0.9974984505982083</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>77</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77">
-        <v>0.99802300899032637</v>
+        <v>0</v>
       </c>
       <c r="C77">
-        <v>0.99802075844737559</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>0.99800774962561389</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>78</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78">
-        <v>0.99779308196513561</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>0.99778992779640396</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>0.99753905044779145</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>79</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B79">
-        <v>0.99795872131029784</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>0.99795636894313067</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>0.99794648298558097</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B80">
-        <v>0.99678579391217725</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>0.99678053625130947</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>0.99666975067301344</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81">
-        <v>0.99785697361324788</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>0.9978565324941342</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>0.99774546612631132</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>81</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82">
-        <v>0.99659566931234556</v>
+        <v>0</v>
       </c>
       <c r="C82">
-        <v>0.99658999176629515</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>0.99656641354013309</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>82</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83">
-        <v>0.99635546337857561</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>0.99635291656947111</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>0.99632462031016544</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>83</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84">
-        <v>0.99610496038026319</v>
+        <v>0</v>
       </c>
       <c r="C84">
-        <v>0.99610523935952489</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>0.99601059299179007</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>84</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85">
-        <v>0.98582179609428999</v>
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>0.98583127109197521</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>0.98589949579609526</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>85</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B86">
-        <v>0.99605639680314007</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>0.99605558098882996</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>0.9959466886102093</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>86</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B87">
-        <v>0.99245380146005446</v>
+        <v>0</v>
       </c>
       <c r="C87">
-        <v>0.9924540558492132</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>0.99249124702938551</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>87</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B88">
-        <v>0.99723669292845318</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>0.99723381235003372</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>0.99708100207505379</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>88</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B89">
-        <v>0.98979273740260421</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>0.98979507108107168</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>0.98982871054864752</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>89</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B90">
-        <v>0.99314594399177702</v>
+        <v>0</v>
       </c>
       <c r="C90">
-        <v>0.99315737231582124</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>0.99323151796753351</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>9</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B91">
-        <v>0.99741568939779413</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>0.9974094022250507</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>0.99737115186429315</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>90</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92">
-        <v>0.99666352335576736</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>0.99665938985452451</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>0.99664557212901783</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>91</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B93">
-        <v>0.9968262581135382</v>
+        <v>0</v>
       </c>
       <c r="C93">
-        <v>0.99682334540120976</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>0.99680588768442224</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>92</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B94">
-        <v>0.99579856274916378</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>0.99579796443728408</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>0.99579264104621679</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>93</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B95">
-        <v>0.99649146994939031</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <v>0.99648967332319804</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>0.99647962868254469</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>94</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B96">
-        <v>0.99636373278116463</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>0.99636290194627819</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>0.99634988747224029</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>95</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B97">
-        <v>0.99649053503172558</v>
+        <v>0</v>
       </c>
       <c r="C97">
-        <v>0.99649007804228296</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>0.9964874377011701</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>96</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B98">
-        <v>0.99631286036687083</v>
+        <v>0</v>
       </c>
       <c r="C98">
-        <v>0.99631153614576651</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>0.99630313082584476</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>97</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B99">
-        <v>0.99468388481308501</v>
+        <v>0</v>
       </c>
       <c r="C99">
-        <v>0.99468997277020166</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>0.99470992920266998</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>98</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B100">
-        <v>0.99681179148380394</v>
+        <v>0</v>
       </c>
       <c r="C100">
-        <v>0.9968084362143852</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>0.99678741990203534</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>99</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B101">
-        <v>0.99697930762940934</v>
+        <v>0</v>
       </c>
       <c r="C101">
-        <v>0.99697789733071573</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>0.99697123312806302</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/code/SSIM.xlsx
+++ b/code/SSIM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\github\Digital_Watermarking-LSB-pair\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{62BD491B-923E-4F62-BD84-7C35945D78E9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{04EAFA84-4643-4809-828B-E20C36685799}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10590" xr2:uid="{E242CDEE-F459-45A4-A068-01DB7B248051}"/>
   </bookViews>
@@ -28,15 +28,19 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Image Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LSB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LSB_pair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LSB-pair-ultar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -433,7 +437,7 @@
         <v>0.99662420299230281</v>
       </c>
       <c r="D2">
-        <v>0.9960766750132195</v>
+        <v>0.99660008614738449</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -447,7 +451,7 @@
         <v>0.99727116532673632</v>
       </c>
       <c r="D3">
-        <v>0.99624301881785549</v>
+        <v>0.99724179036629224</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -461,7 +465,7 @@
         <v>0.99754972914898443</v>
       </c>
       <c r="D4">
-        <v>0.99451176331311142</v>
+        <v>0.99749448400148266</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -475,7 +479,7 @@
         <v>0.98894570400885007</v>
       </c>
       <c r="D5">
-        <v>0.98798519126500761</v>
+        <v>0.98907595672063475</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -489,7 +493,7 @@
         <v>0.99699334760730995</v>
       </c>
       <c r="D6">
-        <v>0.9960269024697479</v>
+        <v>0.99694860768201987</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -503,7 +507,7 @@
         <v>0.99706913600998304</v>
       </c>
       <c r="D7">
-        <v>0.99569491115281805</v>
+        <v>0.99708122451202796</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -517,7 +521,7 @@
         <v>0.99173778572694959</v>
       </c>
       <c r="D8">
-        <v>0.99087439127982047</v>
+        <v>0.9917844709087299</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -531,7 +535,7 @@
         <v>0.99709026688683156</v>
       </c>
       <c r="D9">
-        <v>0.99522498995502473</v>
+        <v>0.99705971748087507</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -545,7 +549,7 @@
         <v>0.99652144568920198</v>
       </c>
       <c r="D10">
-        <v>0.99502976590744163</v>
+        <v>0.99650934880702813</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -559,7 +563,7 @@
         <v>0.9963244441121657</v>
       </c>
       <c r="D11">
-        <v>0.99531170908011679</v>
+        <v>0.99632005078156916</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">

--- a/code/SSIM.xlsx
+++ b/code/SSIM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\github\Digital_Watermarking-LSB-pair\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{04EAFA84-4643-4809-828B-E20C36685799}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{799B34DF-CBD9-4983-BBA6-9D6AB30DACC7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10590" xr2:uid="{E242CDEE-F459-45A4-A068-01DB7B248051}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Image Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,7 +39,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LSB-pair-ultar</t>
+    <t>LSB_pair_dual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSB_pair_triple</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,15 +408,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1C3735-279B-4279-9139-BFBFA7502CCA}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D101"/>
+      <selection activeCell="B2" sqref="B2:E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,8 +429,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -437,10 +444,13 @@
         <v>0.99662420299230281</v>
       </c>
       <c r="D2">
-        <v>0.99660008614738449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.99662420299230281</v>
+      </c>
+      <c r="E2">
+        <v>0.99662420299230281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
@@ -451,10 +461,13 @@
         <v>0.99727116532673632</v>
       </c>
       <c r="D3">
-        <v>0.99724179036629224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.99727116532673632</v>
+      </c>
+      <c r="E3">
+        <v>0.99727116532673632</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>100</v>
       </c>
@@ -465,10 +478,13 @@
         <v>0.99754972914898443</v>
       </c>
       <c r="D4">
-        <v>0.99749448400148266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.99754972914898443</v>
+      </c>
+      <c r="E4">
+        <v>0.99754972914898443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>11</v>
       </c>
@@ -479,10 +495,13 @@
         <v>0.98894570400885007</v>
       </c>
       <c r="D5">
-        <v>0.98907595672063475</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.98894570400885007</v>
+      </c>
+      <c r="E5">
+        <v>0.98894570400885007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>12</v>
       </c>
@@ -493,10 +512,13 @@
         <v>0.99699334760730995</v>
       </c>
       <c r="D6">
-        <v>0.99694860768201987</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.99699334760730995</v>
+      </c>
+      <c r="E6">
+        <v>0.99699334760730995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>13</v>
       </c>
@@ -507,10 +529,13 @@
         <v>0.99706913600998304</v>
       </c>
       <c r="D7">
-        <v>0.99708122451202796</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.99706913600998304</v>
+      </c>
+      <c r="E7">
+        <v>0.99706913600998304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>14</v>
       </c>
@@ -521,10 +546,13 @@
         <v>0.99173778572694959</v>
       </c>
       <c r="D8">
-        <v>0.9917844709087299</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.99173778572694959</v>
+      </c>
+      <c r="E8">
+        <v>0.99173778572694959</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>15</v>
       </c>
@@ -535,10 +563,13 @@
         <v>0.99709026688683156</v>
       </c>
       <c r="D9">
-        <v>0.99705971748087507</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.99709026688683156</v>
+      </c>
+      <c r="E9">
+        <v>0.99709026688683156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>16</v>
       </c>
@@ -549,10 +580,13 @@
         <v>0.99652144568920198</v>
       </c>
       <c r="D10">
-        <v>0.99650934880702813</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.99652144568920198</v>
+      </c>
+      <c r="E10">
+        <v>0.99652144568920198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>17</v>
       </c>
@@ -563,10 +597,13 @@
         <v>0.9963244441121657</v>
       </c>
       <c r="D11">
-        <v>0.99632005078156916</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.9963244441121657</v>
+      </c>
+      <c r="E11">
+        <v>0.9963244441121657</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>0</v>
       </c>
@@ -576,8 +613,11 @@
       <c r="D12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>0</v>
       </c>
@@ -587,8 +627,11 @@
       <c r="D13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>0</v>
       </c>
@@ -598,8 +641,11 @@
       <c r="D14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>0</v>
       </c>
@@ -609,8 +655,11 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>0</v>
       </c>
@@ -620,8 +669,11 @@
       <c r="D16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>0</v>
       </c>
@@ -631,8 +683,11 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>0</v>
       </c>
@@ -642,8 +697,11 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>0</v>
       </c>
@@ -653,8 +711,11 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>0</v>
       </c>
@@ -664,8 +725,11 @@
       <c r="D20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>0</v>
       </c>
@@ -675,8 +739,11 @@
       <c r="D21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>0</v>
       </c>
@@ -686,8 +753,11 @@
       <c r="D22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>0</v>
       </c>
@@ -697,8 +767,11 @@
       <c r="D23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>0</v>
       </c>
@@ -708,8 +781,11 @@
       <c r="D24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>0</v>
       </c>
@@ -719,8 +795,11 @@
       <c r="D25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>0</v>
       </c>
@@ -730,8 +809,11 @@
       <c r="D26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>0</v>
       </c>
@@ -741,8 +823,11 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>0</v>
       </c>
@@ -752,8 +837,11 @@
       <c r="D28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>0</v>
       </c>
@@ -763,8 +851,11 @@
       <c r="D29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>0</v>
       </c>
@@ -774,8 +865,11 @@
       <c r="D30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>0</v>
       </c>
@@ -785,8 +879,11 @@
       <c r="D31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>0</v>
       </c>
@@ -796,8 +893,11 @@
       <c r="D32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>0</v>
       </c>
@@ -807,8 +907,11 @@
       <c r="D33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>0</v>
       </c>
@@ -818,8 +921,11 @@
       <c r="D34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>0</v>
       </c>
@@ -829,8 +935,11 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>0</v>
       </c>
@@ -840,8 +949,11 @@
       <c r="D36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>0</v>
       </c>
@@ -851,8 +963,11 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>0</v>
       </c>
@@ -862,8 +977,11 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>0</v>
       </c>
@@ -873,8 +991,11 @@
       <c r="D39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>0</v>
       </c>
@@ -884,8 +1005,11 @@
       <c r="D40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>0</v>
       </c>
@@ -895,8 +1019,11 @@
       <c r="D41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>0</v>
       </c>
@@ -906,8 +1033,11 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>0</v>
       </c>
@@ -917,8 +1047,11 @@
       <c r="D43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>0</v>
       </c>
@@ -928,8 +1061,11 @@
       <c r="D44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>0</v>
       </c>
@@ -939,8 +1075,11 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>0</v>
       </c>
@@ -950,8 +1089,11 @@
       <c r="D46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>0</v>
       </c>
@@ -961,8 +1103,11 @@
       <c r="D47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>0</v>
       </c>
@@ -972,8 +1117,11 @@
       <c r="D48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>0</v>
       </c>
@@ -983,8 +1131,11 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>0</v>
       </c>
@@ -994,8 +1145,11 @@
       <c r="D50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>0</v>
       </c>
@@ -1005,8 +1159,11 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>0</v>
       </c>
@@ -1016,8 +1173,11 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>0</v>
       </c>
@@ -1027,8 +1187,11 @@
       <c r="D53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>0</v>
       </c>
@@ -1038,8 +1201,11 @@
       <c r="D54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>0</v>
       </c>
@@ -1049,8 +1215,11 @@
       <c r="D55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>0</v>
       </c>
@@ -1060,8 +1229,11 @@
       <c r="D56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>0</v>
       </c>
@@ -1071,8 +1243,11 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>0</v>
       </c>
@@ -1082,8 +1257,11 @@
       <c r="D58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>0</v>
       </c>
@@ -1093,8 +1271,11 @@
       <c r="D59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>0</v>
       </c>
@@ -1104,8 +1285,11 @@
       <c r="D60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>0</v>
       </c>
@@ -1115,8 +1299,11 @@
       <c r="D61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>0</v>
       </c>
@@ -1126,8 +1313,11 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>0</v>
       </c>
@@ -1137,8 +1327,11 @@
       <c r="D63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>0</v>
       </c>
@@ -1148,8 +1341,11 @@
       <c r="D64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>0</v>
       </c>
@@ -1159,8 +1355,11 @@
       <c r="D65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>0</v>
       </c>
@@ -1170,8 +1369,11 @@
       <c r="D66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>0</v>
       </c>
@@ -1181,8 +1383,11 @@
       <c r="D67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>0</v>
       </c>
@@ -1192,8 +1397,11 @@
       <c r="D68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>0</v>
       </c>
@@ -1203,8 +1411,11 @@
       <c r="D69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70">
         <v>0</v>
       </c>
@@ -1214,8 +1425,11 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>0</v>
       </c>
@@ -1225,8 +1439,11 @@
       <c r="D71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>0</v>
       </c>
@@ -1236,8 +1453,11 @@
       <c r="D72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>0</v>
       </c>
@@ -1247,8 +1467,11 @@
       <c r="D73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74">
         <v>0</v>
       </c>
@@ -1258,8 +1481,11 @@
       <c r="D74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75">
         <v>0</v>
       </c>
@@ -1269,8 +1495,11 @@
       <c r="D75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>0</v>
       </c>
@@ -1280,8 +1509,11 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77">
         <v>0</v>
       </c>
@@ -1291,8 +1523,11 @@
       <c r="D77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78">
         <v>0</v>
       </c>
@@ -1302,8 +1537,11 @@
       <c r="D78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79">
         <v>0</v>
       </c>
@@ -1313,8 +1551,11 @@
       <c r="D79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80">
         <v>0</v>
       </c>
@@ -1324,8 +1565,11 @@
       <c r="D80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81">
         <v>0</v>
       </c>
@@ -1335,8 +1579,11 @@
       <c r="D81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82">
         <v>0</v>
       </c>
@@ -1346,8 +1593,11 @@
       <c r="D82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83">
         <v>0</v>
       </c>
@@ -1357,8 +1607,11 @@
       <c r="D83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84">
         <v>0</v>
       </c>
@@ -1368,8 +1621,11 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85">
         <v>0</v>
       </c>
@@ -1379,8 +1635,11 @@
       <c r="D85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86">
         <v>0</v>
       </c>
@@ -1390,8 +1649,11 @@
       <c r="D86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87">
         <v>0</v>
       </c>
@@ -1401,8 +1663,11 @@
       <c r="D87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88">
         <v>0</v>
       </c>
@@ -1412,8 +1677,11 @@
       <c r="D88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89">
         <v>0</v>
       </c>
@@ -1423,8 +1691,11 @@
       <c r="D89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90">
         <v>0</v>
       </c>
@@ -1434,8 +1705,11 @@
       <c r="D90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91">
         <v>0</v>
       </c>
@@ -1445,8 +1719,11 @@
       <c r="D91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92">
         <v>0</v>
       </c>
@@ -1456,8 +1733,11 @@
       <c r="D92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93">
         <v>0</v>
       </c>
@@ -1467,8 +1747,11 @@
       <c r="D93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94">
         <v>0</v>
       </c>
@@ -1478,8 +1761,11 @@
       <c r="D94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95">
         <v>0</v>
       </c>
@@ -1489,8 +1775,11 @@
       <c r="D95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96">
         <v>0</v>
       </c>
@@ -1500,8 +1789,11 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97">
         <v>0</v>
       </c>
@@ -1511,8 +1803,11 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98">
         <v>0</v>
       </c>
@@ -1522,8 +1817,11 @@
       <c r="D98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99">
         <v>0</v>
       </c>
@@ -1533,8 +1831,11 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100">
         <v>0</v>
       </c>
@@ -1544,8 +1845,11 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101">
         <v>0</v>
       </c>
@@ -1553,6 +1857,9 @@
         <v>0</v>
       </c>
       <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
         <v>0</v>
       </c>
     </row>
